--- a/biology/Médecine/Ferdinand_Piéchaud/Ferdinand_Piéchaud.xlsx
+++ b/biology/Médecine/Ferdinand_Piéchaud/Ferdinand_Piéchaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ferdinand_Pi%C3%A9chaud</t>
+          <t>Ferdinand_Piéchaud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ferdinand Piéchaud, né à Bordeaux le 10 mars 1890 et mort le 18 février 1958 dans la même ville, est un médecin, phtisiologue et professeur français s'étant illustré dans la lutte contre la tuberculose.
 Il fut secrétaire général de la Fédération antituberculeuse de la Gironde, président du Comité d'entraide aux tuberculeux de Gironde, membre du Comité national de la tuberculose, président du Syndicat national des Médecins spécialistes de l'appareil respiratoire et, en dehors de ses activités médicales, président de la Société des Amis du Musée des Beaux-Arts de Bordeaux.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ferdinand_Pi%C3%A9chaud</t>
+          <t>Ferdinand_Piéchaud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,20 +526,130 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et formation
-Ferdinand Henri Piéchaud est né en 1890 dans l'hôtel familial de Bordeaux, au 18 de la rue Porte-Dijeaux[1]. Son père, Timothée Piéchaud, professeur à la faculté de Médecine de Bordeaux, précurseur en chirurgie infantile, éminent chirurgien, est issu d'une vieille famille girondine originaire d'Abzac et à la tradition médicale fortement ancrée. Sa mère, Marie Cardez, est la fille du comte Ferdinand Cardez, et descend d'une vieille famille du négoce bordelais. Ferdinand est le sixième d'une fratrie de huit enfants.
-Il fait ses études, comme ses frères Louis et Martial, chez les Jésuites au Lycée Saint-Joseph-de-Tivoli à Bordeaux. Après une licence ès lettres en 1910, il entre à la Faculté de médecine de Bordeaux, d'où il sort lauréat. Il est externe en 1910, interne en 1913[2]. 
+          <t>Jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ferdinand Henri Piéchaud est né en 1890 dans l'hôtel familial de Bordeaux, au 18 de la rue Porte-Dijeaux. Son père, Timothée Piéchaud, professeur à la faculté de Médecine de Bordeaux, précurseur en chirurgie infantile, éminent chirurgien, est issu d'une vieille famille girondine originaire d'Abzac et à la tradition médicale fortement ancrée. Sa mère, Marie Cardez, est la fille du comte Ferdinand Cardez, et descend d'une vieille famille du négoce bordelais. Ferdinand est le sixième d'une fratrie de huit enfants.
+Il fait ses études, comme ses frères Louis et Martial, chez les Jésuites au Lycée Saint-Joseph-de-Tivoli à Bordeaux. Après une licence ès lettres en 1910, il entre à la Faculté de médecine de Bordeaux, d'où il sort lauréat. Il est externe en 1910, interne en 1913. 
 Il est docteur en médecine en 1921, médecin des hôpitaux en 1924, professeur agrégé de médecine générale en 1928.
 En 1935, il est l'un des signataires du Manifeste des intellectuels français pour la défense de l'Occident et la paix en Europe.
-Mariage et descendance
-Il se marie à Bordeaux le 11 juin 1920[3] avec Louise Moreau, fille d'Armand Moreau, négociant en vins bordelais, et de Marguerite Sebileau, sœur du professeur Pierre Sebileau, membre de l'Académie de médecine. Ils ont sept enfants : Dominique (1922-2011), Lydie (1923-2007), Françoise (1924-1963), Marie-Thérèse (1925-2015), Bernard (1928-2005), Jean-Pierre (1934) et Bertrand (1941). Sa veuve Louise est décédée en 1984 à quatre-vingt-six ans. 
-Carrière militaire
-Appartenant à la classe 1910, il est mobilisé et part le 2 août 1914 avec le 57e régiment d'infanterie où il demeure affecté jusqu'en octobre 1915. Le 14 septembre 1914, il est fait prisonnier au camp d'Erfurt où il soigne, en tant que médecin auxiliaire, une épidémie de typhus. Il reçoit alors la médaille d'honneur des épidémies. Fin septembre 1915, il rentre en France sur intervention personnelle du roi d'Espagne Alphonse XIII auprès de son cousin Guillaume II, à la demande de Madame Timothée Piéchaud en souvenir de son mari, médecin du jeune roi lors de ses séjours à Cambo-les-Bains[4], et est affecté en octobre à l'artillerie à cheval de l'armée d'Orient. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ferdinand_Piéchaud</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ferdinand_Pi%C3%A9chaud</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mariage et descendance</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se marie à Bordeaux le 11 juin 1920 avec Louise Moreau, fille d'Armand Moreau, négociant en vins bordelais, et de Marguerite Sebileau, sœur du professeur Pierre Sebileau, membre de l'Académie de médecine. Ils ont sept enfants : Dominique (1922-2011), Lydie (1923-2007), Françoise (1924-1963), Marie-Thérèse (1925-2015), Bernard (1928-2005), Jean-Pierre (1934) et Bertrand (1941). Sa veuve Louise est décédée en 1984 à quatre-vingt-six ans. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ferdinand_Piéchaud</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ferdinand_Pi%C3%A9chaud</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière militaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appartenant à la classe 1910, il est mobilisé et part le 2 août 1914 avec le 57e régiment d'infanterie où il demeure affecté jusqu'en octobre 1915. Le 14 septembre 1914, il est fait prisonnier au camp d'Erfurt où il soigne, en tant que médecin auxiliaire, une épidémie de typhus. Il reçoit alors la médaille d'honneur des épidémies. Fin septembre 1915, il rentre en France sur intervention personnelle du roi d'Espagne Alphonse XIII auprès de son cousin Guillaume II, à la demande de Madame Timothée Piéchaud en souvenir de son mari, médecin du jeune roi lors de ses séjours à Cambo-les-Bains, et est affecté en octobre à l'artillerie à cheval de l'armée d'Orient. 
 Il est ensuite reçu, en avril 1916, à l'hôpital chirurgical Narychkine de Salonique comme assistant de chirurgie au 175e régiment d'infanterie. Il rentre en France le 7 septembre 1917 et passe alors au 142e régiment d'infanterie où il reste jusqu'au 6 décembre 1917. Il est ensuite affecté à deux ambulances et finit médecin aide major de 1re classe. 
-Il est démobilisé le 18 août 1919[5].
-Carrière médicale
-Très tôt attiré par l'hygiène, il devient préparateur, en 1923, du professeur Auché, puis en qualité de chef de laboratoire, en 1930, collaborateur du professeur Leuret.
-C'est la mort, en 1929, de la tuberculose, de son beau-frère Pierre Moreau, qui le décide à se spécialiser dans cette voie[6]. Il obtient en 1948 qu'à sa chaire soit adjointe une clinique de la tuberculose. « Le sanatorium Xavier-Arnozan est, peut-on dire, entièrement son œuvre.[7] »
+Il est démobilisé le 18 août 1919.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ferdinand_Piéchaud</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ferdinand_Pi%C3%A9chaud</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Carrière médicale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très tôt attiré par l'hygiène, il devient préparateur, en 1923, du professeur Auché, puis en qualité de chef de laboratoire, en 1930, collaborateur du professeur Leuret.
+C'est la mort, en 1929, de la tuberculose, de son beau-frère Pierre Moreau, qui le décide à se spécialiser dans cette voie. Il obtient en 1948 qu'à sa chaire soit adjointe une clinique de la tuberculose. « Le sanatorium Xavier-Arnozan est, peut-on dire, entièrement son œuvre. »
 Éminent praticien, il participe à de nombreux congrès médicaux à l'étranger, à Rome en 1950, à Rio de Janeiro et au Maroc en 1953, à Rome-Salerne, à Alger, à Barcelone et à Madrid en 1954, à New Delhi en 1957, à Bristol, ou encore Athènes. Il est secrétaire général de la Fédération antituberculeuse de la Gironde, président du Comité d'entraide aux tuberculeux de Gironde, membre du Comité national de la tuberculose, membre de la société d'études scientifiques de la tuberculose et de la société d'études des maladies respiratoires, médecin-chef du service centre de phtisiologie Xavier Arnozan, directeur du centre sanitaire du sud-ouest et président du Syndicat national des Médecins spécialistes de l'appareil respiratoire (S.A.R.) de 1948 à 1958. 
 Il fait de nombreuses publications dans diverses revues et est fait fellow de l'American College of Chest Physicians (en).
 Il meurt à Bordeaux le 18 février 1958, d'un cancer.
@@ -535,82 +657,246 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ferdinand_Pi%C3%A9chaud</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ferdinand_Pi%C3%A9chaud</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ferdinand_Piéchaud</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ferdinand_Pi%C3%A9chaud</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distinctions et hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Distinctions
-Décorations françaises
- Chevalier de la Légion d'honneur, novembre 1923, militaire.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Décorations françaises</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur, novembre 1923, militaire.
  Officier de la Légion d'honneur, 1950, carrière.
  Croix de guerre 1914-1918, 1917.
  Médaille d'honneur des épidémies, épidémie de typhus dans un camp de prisonniers en 1914-1915.
  Chevalier de l'Ordre de la Santé publique.
- Officier de l'Instruction publique.
-Décorations étrangères
- Chevalier de l'Ordre de Saint-Sava, 1916, Serbie.
-Hommages
-Centre de santé Ferdinand-Piéchaud, rue des Treuils, à Bordeaux.
+ Officier de l'Instruction publique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ferdinand_Piéchaud</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ferdinand_Pi%C3%A9chaud</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distinctions et hommages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Décorations étrangères</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de l'Ordre de Saint-Sava, 1916, Serbie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ferdinand_Piéchaud</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ferdinand_Pi%C3%A9chaud</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distinctions et hommages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Centre de santé Ferdinand-Piéchaud, rue des Treuils, à Bordeaux.
 Place du Professeur-Piéchaud, à Pessac.
 Galerie Timothée-et-Ferdinand-Piéchaud de la Faculté de médecine et de pharmacie de Bordeaux.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ferdinand_Pi%C3%A9chaud</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ferdinand_Pi%C3%A9chaud</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ferdinand_Piéchaud</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ferdinand_Pi%C3%A9chaud</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Historiques
-Article
-1909 : Comptes de l’archevêché de Bordeaux (XIIIe siècle), Bordeaux, Archives historiques du département de la Gironde, t. 44, p. 1-21.
-Médicales
-Thèse
-1921 : Réaction du tissu conjonctif aux injections sous-cutanées d'huiles minérales : les vaselinomes, Bordeaux.
-Articles
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Historiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1909 : Comptes de l’archevêché de Bordeaux (XIIIe siècle), Bordeaux, Archives historiques du département de la Gironde, t. 44, p. 1-21.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ferdinand_Piéchaud</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ferdinand_Pi%C3%A9chaud</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Médicales</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Thèse</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1921 : Réaction du tissu conjonctif aux injections sous-cutanées d'huiles minérales : les vaselinomes, Bordeaux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ferdinand_Piéchaud</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ferdinand_Pi%C3%A9chaud</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Médicales</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1923 : Influences du chlorure de sodium sur la culture de quelques agents microbiens pathogènes pour l'homme, Bordeaux, Congrès de l'Association française pour l'avancement des sciences.
 1927 : La Peste à Bordeaux et la naissance d'une hygiène urabaine, Bordeaux, juin, publié dans le Journal de Médecine de Bordeaux.
 1927 : La création d'une cité universitaire s'impose à Bordeaux, Bordeaux, 25 sept., publié dans le Journal de Médecine de Bordeaux.
@@ -621,13 +907,92 @@
 1953 : Indications générales des diverses thérapeutiques de la tuberculose pulmonaire, Bordeaux, fév., publié dans le Journal de Médecine de Bordeaux.
 1953 : Lépreux et cagots au Moyen-âge, publié dans le Maroc-Médical, no 339.
 1953 : De la primo-infection à la phtisie, publié dans le Maroc-Médical, no 341.
-Communications
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ferdinand_Piéchaud</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ferdinand_Pi%C3%A9chaud</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Médicales</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1935 : Vingt cas de thoracoplastie en clientèle, 15-17 avril, Congrès de Marseille.
 1936 : Principes généraux de l'organisation et de la construction de l'hôpital en France, Congrès international des hôpitaux.
 1937 : Formes cliniques de la tuberculose infantile, Pessac, 9 juillet, Semaine de phtisiologie de Bordeaux.
 1939 : Considérations sur l'évolution de la construction hospitalière en France de la Révolution à nos jours, Les conceptions en matière d'hospitalisation au cours du siècle dernier, le plan de l'hôpital, août-sept.
-Conférences
-1947 : La douleur humaine à l'hôpital, prononcée le 20 janvier 1947 à l'Université de Bordeaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Ferdinand_Piéchaud</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ferdinand_Pi%C3%A9chaud</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Médicales</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Conférences</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1947 : La douleur humaine à l'hôpital, prononcée le 20 janvier 1947 à l'Université de Bordeaux.
 1954 : Comment fut jugulée la variole : Jenner et ses prédécesseurs, prononcée le 17 novembre 1954.</t>
         </is>
       </c>
